--- a/Inputdateien/Input_Balingen_Gartenschau_abZOB.xlsx
+++ b/Inputdateien/Input_Balingen_Gartenschau_abZOB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A40556E-6F97-425B-95C3-DB86C4E7AF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65357E6-C36B-4A43-B4C9-40F8B7911FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Tabelle richtig ausgefüllt?</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Abbremsen</t>
+  </si>
+  <si>
+    <t>Beginn DWPT Messegelände</t>
+  </si>
+  <si>
+    <t>Ende DWPT Messegelände</t>
   </si>
 </sst>
 </file>
@@ -484,27 +490,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -821,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +873,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="str">
-        <f t="shared" ref="H2:H42" si="0">IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="H2:H44" si="0">IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -922,7 +908,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="B4" s="6">
         <v>50</v>
@@ -1168,17 +1154,17 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
         <v>60</v>
       </c>
       <c r="G13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1368,13 +1354,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>2.8200000000000003</v>
+        <v>2.77</v>
       </c>
       <c r="B21" s="6">
         <v>50</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
@@ -1382,49 +1368,49 @@
       <c r="E21" s="6">
         <v>0</v>
       </c>
-      <c r="F21" s="6">
-        <v>120</v>
-      </c>
-      <c r="G21" s="6">
-        <v>12</v>
-      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>3.3</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="6">
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>120</v>
+      </c>
+      <c r="G22" s="6">
+        <v>9</v>
+      </c>
       <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>3.419</v>
+        <v>2.87</v>
       </c>
       <c r="B23" s="6">
         <v>50</v>
@@ -1445,15 +1431,15 @@
         <v>Ja</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="B24" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -1471,15 +1457,15 @@
         <v>Ja</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>3.5</v>
+        <v>3.419</v>
       </c>
       <c r="B25" s="6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -1497,15 +1483,15 @@
         <v>Ja</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>3.5500000000000003</v>
+        <v>3.45</v>
       </c>
       <c r="B26" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -1523,12 +1509,12 @@
         <v>Ja</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="B27" s="6">
         <v>15</v>
@@ -1549,15 +1535,15 @@
         <v>Ja</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>3.95</v>
+        <v>3.5500000000000003</v>
       </c>
       <c r="B28" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -1568,26 +1554,22 @@
       <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="6">
-        <v>60</v>
-      </c>
-      <c r="G28" s="6">
-        <v>15</v>
-      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>3.98</v>
+        <v>3.91</v>
       </c>
       <c r="B29" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -1605,15 +1587,15 @@
         <v>Ja</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>4.0599999999999996</v>
+        <v>3.95</v>
       </c>
       <c r="B30" s="6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -1622,24 +1604,28 @@
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>60</v>
+      </c>
+      <c r="G30" s="6">
+        <v>13</v>
+      </c>
       <c r="H30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>4.16</v>
+        <v>3.98</v>
       </c>
       <c r="B31" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -1657,15 +1643,15 @@
         <v>Ja</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
-        <v>4.2700000000000005</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="B32" s="6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -1683,18 +1669,18 @@
         <v>Ja</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
-        <v>4.32</v>
+        <v>4.16</v>
       </c>
       <c r="B33" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -1709,18 +1695,18 @@
         <v>Ja</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
-        <v>4.5200000000000005</v>
+        <v>4.2700000000000005</v>
       </c>
       <c r="B34" s="6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -1735,21 +1721,21 @@
         <v>Ja</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>4.58</v>
+        <v>4.32</v>
       </c>
       <c r="B35" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
       </c>
       <c r="D35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -1761,73 +1747,73 @@
         <v>Ja</v>
       </c>
       <c r="I35" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="B36" s="6">
+        <v>50</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>4.58</v>
+      </c>
+      <c r="B37" s="6">
+        <v>50</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>4.66</v>
-      </c>
-      <c r="B36" s="7">
-        <v>50</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="B37" s="7">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <v>4.72</v>
+        <v>4.66</v>
       </c>
       <c r="B38" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
@@ -1839,18 +1825,18 @@
         <v>Ja</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="B39" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
@@ -1865,12 +1851,12 @@
         <v>Ja</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <v>4.78</v>
+        <v>4.72</v>
       </c>
       <c r="B40" s="7">
         <v>15</v>
@@ -1891,18 +1877,18 @@
         <v>Ja</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <v>4.83</v>
+        <v>4.75</v>
       </c>
       <c r="B41" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -1917,18 +1903,18 @@
         <v>Ja</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <v>4.88</v>
+        <v>4.78</v>
       </c>
       <c r="B42" s="7">
         <v>15</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
         <v>0</v>
@@ -1943,6 +1929,58 @@
         <v>Ja</v>
       </c>
       <c r="I42" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>4.83</v>
+      </c>
+      <c r="B43" s="7">
+        <v>15</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>4.88</v>
+      </c>
+      <c r="B44" s="7">
+        <v>15</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Inputdateien/Input_Balingen_Gartenschau_abZOB.xlsx
+++ b/Inputdateien/Input_Balingen_Gartenschau_abZOB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65357E6-C36B-4A43-B4C9-40F8B7911FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC8322-E19D-48B8-B212-66FFD6A46482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AB0C03FA-75A9-47B9-9B58-731B2B1010BB}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{44950278-1771-423D-A0D8-3598D6A3CA9B}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1A2F77FC-1E10-4FA0-B2CF-794683435925}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CD021678-605D-43CC-AB4A-4AE4B14AC047}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D9EBAC79-70C4-4B1D-B182-106FC8A7FD2A}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E35690A6-13B1-44B0-A825-7FD4B0754B47}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F31D25AA-5C98-4A9F-AE5C-98579B8E261B}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DC566859-C613-4231-AB40-72179756EF64}">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1DD78408-432B-48B1-84DB-243A58977818}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{37D8C664-25DD-476F-BB4D-C1FD59284290}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F5665EB5-45EE-4888-B301-6FEFBA87B1E3}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F4D18CF0-8946-476F-BCE6-EFA1C512B5C9}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Tabelle richtig ausgefüllt?</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Haltestelle Stadthalle/Hallenbad</t>
   </si>
   <si>
-    <t>Start: Ausfahrt aus Bahnhofsgelände</t>
-  </si>
-  <si>
     <t>Haltezeit [s]</t>
   </si>
   <si>
@@ -348,6 +345,12 @@
   </si>
   <si>
     <t>Ende DWPT Messegelände</t>
+  </si>
+  <si>
+    <t>Start: Ausfahrt aus Bahnhofsgelände, Start DWPT</t>
+  </si>
+  <si>
+    <t>Beschleunigung auf Tempolimit 30 km/h, Beginn DWPT</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,9 +474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,7 +490,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -807,15 +827,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="11" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24" style="2" customWidth="1"/>
     <col min="5" max="6" width="24.88671875" style="2" customWidth="1"/>
@@ -825,7 +845,7 @@
     <col min="10" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -842,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -855,7 +875,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="6">
@@ -873,19 +893,19 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="str">
-        <f t="shared" ref="H2:H44" si="0">IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="H2:H45" si="0">IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>5.7000000000000002E-2</v>
+      <c r="A3" s="8">
+        <v>0.05</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -907,14 +927,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>6.8000000000000005E-2</v>
+      <c r="A4" s="8">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="B4" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -929,12 +949,12 @@
         <v>Ja</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>0.11</v>
+      <c r="A5" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B5" s="6">
         <v>50</v>
@@ -943,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -955,21 +975,21 @@
         <v>Ja</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>0.18</v>
+      <c r="A6" s="8">
+        <v>0.11</v>
       </c>
       <c r="B6" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -981,15 +1001,15 @@
         <v>Ja</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>0.32999999999999996</v>
+      <c r="A7" s="8">
+        <v>0.18</v>
       </c>
       <c r="B7" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -1007,18 +1027,18 @@
         <v>Ja</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>0.37</v>
+      <c r="A8" s="8">
+        <v>0.32999999999999996</v>
       </c>
       <c r="B8" s="6">
         <v>15</v>
       </c>
       <c r="C8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -1033,18 +1053,18 @@
         <v>Ja</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>0.43</v>
+      <c r="A9" s="8">
+        <v>0.37</v>
       </c>
       <c r="B9" s="6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -1059,18 +1079,18 @@
         <v>Ja</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>0.53</v>
+      <c r="A10" s="8">
+        <v>0.43</v>
       </c>
       <c r="B10" s="6">
         <v>50</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -1089,8 +1109,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>0.65</v>
+      <c r="A11" s="8">
+        <v>0.53</v>
       </c>
       <c r="B11" s="6">
         <v>50</v>
@@ -1099,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1111,12 +1131,12 @@
         <v>Ja</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>0.85</v>
+      <c r="A12" s="8">
+        <v>0.65</v>
       </c>
       <c r="B12" s="6">
         <v>50</v>
@@ -1141,65 +1161,65 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="B13" s="6">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>0.95</v>
       </c>
-      <c r="B13" s="6">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="B14" s="6">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>60</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>1.1099999999999999</v>
       </c>
-      <c r="B14" s="6">
-        <v>50</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>1.37</v>
-      </c>
       <c r="B15" s="6">
         <v>50</v>
       </c>
@@ -1207,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1219,12 +1239,12 @@
         <v>Ja</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>1.54</v>
+      <c r="A16" s="8">
+        <v>1.37</v>
       </c>
       <c r="B16" s="6">
         <v>50</v>
@@ -1233,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1245,12 +1265,12 @@
         <v>Ja</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>1.65</v>
+      <c r="A17" s="8">
+        <v>1.54</v>
       </c>
       <c r="B17" s="6">
         <v>50</v>
@@ -1275,8 +1295,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>2.14</v>
+      <c r="A18" s="8">
+        <v>1.65</v>
       </c>
       <c r="B18" s="6">
         <v>50</v>
@@ -1301,8 +1321,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>2.2200000000000002</v>
+      <c r="A19" s="8">
+        <v>2.14</v>
       </c>
       <c r="B19" s="6">
         <v>50</v>
@@ -1327,8 +1347,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>2.33</v>
+      <c r="A20" s="8">
+        <v>2.2200000000000002</v>
       </c>
       <c r="B20" s="6">
         <v>50</v>
@@ -1353,17 +1373,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>2.77</v>
+      <c r="A21" s="8">
+        <v>2.33</v>
       </c>
       <c r="B21" s="6">
         <v>50</v>
       </c>
       <c r="C21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -1375,71 +1395,67 @@
         <v>Ja</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="B22" s="6">
+        <v>50</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>2.8200000000000003</v>
       </c>
-      <c r="B22" s="6">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="B23" s="6">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
         <v>120</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>9</v>
       </c>
-      <c r="H22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="H23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>2.87</v>
       </c>
-      <c r="B23" s="6">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>3.3</v>
-      </c>
       <c r="B24" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -1457,15 +1473,15 @@
         <v>Ja</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>3.419</v>
+      <c r="A25" s="8">
+        <v>3.3</v>
       </c>
       <c r="B25" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -1487,11 +1503,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>3.45</v>
+      <c r="A26" s="8">
+        <v>3.419</v>
       </c>
       <c r="B26" s="6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -1509,12 +1525,12 @@
         <v>Ja</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>3.5</v>
+      <c r="A27" s="8">
+        <v>3.45</v>
       </c>
       <c r="B27" s="6">
         <v>15</v>
@@ -1535,15 +1551,15 @@
         <v>Ja</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>3.5500000000000003</v>
+      <c r="A28" s="8">
+        <v>3.5</v>
       </c>
       <c r="B28" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -1561,15 +1577,15 @@
         <v>Ja</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>3.91</v>
+      <c r="A29" s="8">
+        <v>3.5500000000000003</v>
       </c>
       <c r="B29" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -1587,12 +1603,12 @@
         <v>Ja</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>3.95</v>
+      <c r="A30" s="8">
+        <v>3.91</v>
       </c>
       <c r="B30" s="6">
         <v>15</v>
@@ -1604,54 +1620,54 @@
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="B31" s="6">
+        <v>15</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
         <v>60</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>13</v>
       </c>
-      <c r="H30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="H31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>3.98</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="6">
         <v>30</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="B32" s="6">
-        <v>50</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -1669,15 +1685,15 @@
         <v>Ja</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>4.16</v>
+      <c r="A33" s="8">
+        <v>4.0599999999999996</v>
       </c>
       <c r="B33" s="6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -1695,12 +1711,12 @@
         <v>Ja</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>4.2700000000000005</v>
+      <c r="A34" s="8">
+        <v>4.16</v>
       </c>
       <c r="B34" s="6">
         <v>15</v>
@@ -1721,18 +1737,18 @@
         <v>Ja</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>4.32</v>
+      <c r="A35" s="8">
+        <v>4.2700000000000005</v>
       </c>
       <c r="B35" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
         <v>0</v>
@@ -1747,15 +1763,15 @@
         <v>Ja</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>4.5200000000000005</v>
+      <c r="A36" s="8">
+        <v>4.32</v>
       </c>
       <c r="B36" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -1773,12 +1789,12 @@
         <v>Ja</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>4.58</v>
+      <c r="A37" s="8">
+        <v>4.5200000000000005</v>
       </c>
       <c r="B37" s="6">
         <v>50</v>
@@ -1787,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -1799,70 +1815,70 @@
         <v>Ja</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>4.58</v>
+      </c>
+      <c r="B38" s="6">
+        <v>50</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>4.66</v>
       </c>
-      <c r="B38" s="7">
-        <v>50</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I38" s="7" t="s">
+      <c r="B39" s="7">
+        <v>50</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>4.7</v>
-      </c>
-      <c r="B39" s="7">
-        <v>15</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <v>4.72</v>
       </c>
       <c r="B40" s="7">
         <v>15</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -1871,76 +1887,76 @@
         <v>0</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
+        <v>4.72</v>
+      </c>
+      <c r="B41" s="7">
+        <v>15</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>4.75</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B42" s="7">
         <v>30</v>
       </c>
-      <c r="C41" s="7">
-        <v>0</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>4.78</v>
-      </c>
-      <c r="B42" s="7">
-        <v>15</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <v>4.83</v>
       </c>
       <c r="B43" s="7">
         <v>15</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
         <v>0</v>
@@ -1949,18 +1965,18 @@
         <v>0</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>4.88</v>
+      <c r="A44" s="9">
+        <v>4.83</v>
       </c>
       <c r="B44" s="7">
         <v>15</v>
@@ -1975,29 +1991,63 @@
         <v>0</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I44" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>4.88</v>
+      </c>
+      <c r="B45" s="7">
+        <v>15</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Ja">
+  <conditionalFormatting sqref="H46:H1048576">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="Ja">
+      <formula>NOT(ISERROR(SEARCH("Ja",H46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="Nein">
+      <formula>NOT(ISERROR(SEARCH("Nein",H46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H45">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="Nein">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Nein">
       <formula>NOT(ISERROR(SEARCH("Nein",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Ja">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Nein">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Nein">
       <formula>NOT(ISERROR(SEARCH("Nein",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
